--- a/combined_analysis/intersectional-genes/Rho_up & Exp_up & Hyper_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_up & Exp_up & Hyper_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
   <si>
     <t>chr</t>
   </si>
@@ -66,6 +66,9 @@
     <t>chr20</t>
   </si>
   <si>
+    <t>chr18</t>
+  </si>
+  <si>
     <t>chr3</t>
   </si>
   <si>
@@ -75,12 +78,24 @@
     <t>chr2</t>
   </si>
   <si>
+    <t>chr11</t>
+  </si>
+  <si>
+    <t>chr16</t>
+  </si>
+  <si>
+    <t>chr6</t>
+  </si>
+  <si>
     <t>chr17</t>
   </si>
   <si>
     <t>TTI1</t>
   </si>
   <si>
+    <t>RBFA</t>
+  </si>
+  <si>
     <t>EIF4G1</t>
   </si>
   <si>
@@ -90,9 +105,21 @@
     <t>PREB</t>
   </si>
   <si>
+    <t>MRPL17</t>
+  </si>
+  <si>
+    <t>DDX19A</t>
+  </si>
+  <si>
+    <t>POLR1C</t>
+  </si>
+  <si>
     <t>GEMIN4</t>
   </si>
   <si>
+    <t>UHRF1</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -108,6 +135,9 @@
     <t>ENSG00000101407.13</t>
   </si>
   <si>
+    <t>ENSG00000101546.13</t>
+  </si>
+  <si>
     <t>ENSG00000114867.21</t>
   </si>
   <si>
@@ -117,7 +147,19 @@
     <t>ENSG00000138073.14</t>
   </si>
   <si>
+    <t>ENSG00000158042.9</t>
+  </si>
+  <si>
+    <t>ENSG00000168872.17</t>
+  </si>
+  <si>
+    <t>ENSG00000171453.20</t>
+  </si>
+  <si>
     <t>ENSG00000179409.11</t>
+  </si>
+  <si>
+    <t>ENSG00000276043.5</t>
   </si>
   <si>
     <t>Exp.hl60.log2FC</t>
@@ -589,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,13 +695,13 @@
         <v>37983553</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>37983504</v>
@@ -674,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M2">
         <v>5.402677381872281</v>
@@ -686,7 +728,7 @@
         <v>0.0007189404614443839</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -700,13 +742,13 @@
         <v>38011567</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>38011518</v>
@@ -721,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M3">
         <v>0.753832132381527</v>
@@ -733,7 +775,7 @@
         <v>0.00151263453385619</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -747,13 +789,13 @@
         <v>38012958</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>38012909</v>
@@ -768,10 +810,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M4">
         <v>-1.49392502530864</v>
@@ -780,7 +822,7 @@
         <v>2.84819308030704E-05</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -794,13 +836,13 @@
         <v>38013356</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>38013307</v>
@@ -815,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M5">
         <v>-0.833504538254867</v>
@@ -827,7 +869,7 @@
         <v>0.00303552350787406</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -835,25 +877,25 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>184334762</v>
+        <v>80046455</v>
       </c>
       <c r="C6">
-        <v>184334811</v>
+        <v>80046504</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>184334762</v>
+        <v>80046455</v>
       </c>
       <c r="H6">
-        <v>184334811</v>
+        <v>80046504</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -862,45 +904,45 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M6">
-        <v>6.2461067654722</v>
+        <v>1.39351460909385</v>
       </c>
       <c r="N6">
-        <v>1.063111376709E-09</v>
+        <v>0.00389571291192137</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>184335110</v>
+        <v>184334762</v>
       </c>
       <c r="C7">
-        <v>184335159</v>
+        <v>184334811</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G7">
-        <v>184335110</v>
+        <v>184334762</v>
       </c>
       <c r="H7">
-        <v>184335159</v>
+        <v>184334811</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -909,19 +951,19 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>4.93447393312132</v>
+        <v>6.2461067654722</v>
       </c>
       <c r="N7">
-        <v>7.437631607265509E-07</v>
+        <v>1.063111376709E-09</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -929,25 +971,25 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>1854475</v>
+        <v>184335110</v>
       </c>
       <c r="C8">
-        <v>1854524</v>
+        <v>184335159</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>1854475</v>
+        <v>184335110</v>
       </c>
       <c r="H8">
-        <v>1854524</v>
+        <v>184335159</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -956,45 +998,45 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>-1.84054963339749</v>
+        <v>4.93447393312132</v>
       </c>
       <c r="N8">
-        <v>0.000273844330500483</v>
+        <v>7.437631607265509E-07</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>1854574</v>
+        <v>1854475</v>
       </c>
       <c r="C9">
-        <v>1854623</v>
+        <v>1854524</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>1854574</v>
+        <v>1854475</v>
       </c>
       <c r="H9">
-        <v>1854623</v>
+        <v>1854524</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1003,19 +1045,19 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>2.96398357523936</v>
+        <v>-1.84054963339749</v>
       </c>
       <c r="N9">
-        <v>0.00435014396607925</v>
+        <v>0.000273844330500483</v>
       </c>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1023,25 +1065,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>27130805</v>
+        <v>1854574</v>
       </c>
       <c r="C10">
-        <v>27130854</v>
+        <v>1854623</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>27130805</v>
+        <v>1854574</v>
       </c>
       <c r="H10">
-        <v>27130854</v>
+        <v>1854623</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1050,19 +1092,19 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>5.06890420221087</v>
+        <v>2.96398357523936</v>
       </c>
       <c r="N10">
-        <v>8.559171092992209E-07</v>
+        <v>0.00435014396607925</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1070,25 +1112,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>746920</v>
+        <v>27130805</v>
       </c>
       <c r="C11">
-        <v>746969</v>
+        <v>27130854</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>746920</v>
+        <v>27130805</v>
       </c>
       <c r="H11">
-        <v>746969</v>
+        <v>27130854</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1097,45 +1139,45 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>1.28903105569467</v>
+        <v>5.06890420221087</v>
       </c>
       <c r="N11">
-        <v>0.00180369781883138</v>
+        <v>8.559171092992209E-07</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>747569</v>
+        <v>6682208</v>
       </c>
       <c r="C12">
-        <v>747618</v>
+        <v>6682257</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G12">
-        <v>747569</v>
+        <v>6682208</v>
       </c>
       <c r="H12">
-        <v>747618</v>
+        <v>6682257</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1144,19 +1186,348 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M12">
+        <v>1.84516024595485</v>
+      </c>
+      <c r="N12">
+        <v>0.000322116124125027</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>70372184</v>
+      </c>
+      <c r="C13">
+        <v>70372233</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>70372184</v>
+      </c>
+      <c r="H13">
+        <v>70372233</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13">
+        <v>1.3028278300968</v>
+      </c>
+      <c r="N13">
+        <v>0.0009859978971932251</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>70372484</v>
+      </c>
+      <c r="C14">
+        <v>70372533</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>70372484</v>
+      </c>
+      <c r="H14">
+        <v>70372533</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14">
+        <v>1.6259672143853</v>
+      </c>
+      <c r="N14">
+        <v>4.22369666268629E-05</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>43521396</v>
+      </c>
+      <c r="C15">
+        <v>43521445</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>43521396</v>
+      </c>
+      <c r="H15">
+        <v>43521445</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15">
+        <v>1.2252635271348</v>
+      </c>
+      <c r="N15">
+        <v>0.00093051473993977</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>746920</v>
+      </c>
+      <c r="C16">
+        <v>746969</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>746920</v>
+      </c>
+      <c r="H16">
+        <v>746969</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16">
+        <v>1.28903105569467</v>
+      </c>
+      <c r="N16">
+        <v>0.00180369781883138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>747569</v>
+      </c>
+      <c r="C17">
+        <v>747618</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>747569</v>
+      </c>
+      <c r="H17">
+        <v>747618</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17">
         <v>4.3040650931948</v>
       </c>
-      <c r="N12">
+      <c r="N17">
         <v>1.16290903628968E-06</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>4961506</v>
+      </c>
+      <c r="C18">
+        <v>4961555</v>
+      </c>
+      <c r="D18" t="s">
         <v>33</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>4961506</v>
+      </c>
+      <c r="H18">
+        <v>4961555</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18">
+        <v>1.03027752842571</v>
+      </c>
+      <c r="N18">
+        <v>0.000369457620172153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4961755</v>
+      </c>
+      <c r="C19">
+        <v>4961804</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>4961755</v>
+      </c>
+      <c r="H19">
+        <v>4961804</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <v>1.73753791506142</v>
+      </c>
+      <c r="N19">
+        <v>0.00073579121568701</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,258 +1545,222 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>0.674</v>
+        <v>0.228</v>
       </c>
       <c r="C2">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.048</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="E2">
-        <v>0.858</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F2">
-        <v>-0.354</v>
+        <v>-0.204</v>
       </c>
       <c r="G2">
-        <v>0.238</v>
+        <v>0.324</v>
       </c>
       <c r="H2">
-        <v>0.113</v>
+        <v>-0.029</v>
       </c>
       <c r="I2">
-        <v>0.5570000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="J2">
-        <v>-0.36</v>
+        <v>-0.031</v>
       </c>
       <c r="K2">
-        <v>0.308</v>
+        <v>0.891</v>
       </c>
       <c r="L2">
-        <v>-0.433</v>
+        <v>0.079</v>
       </c>
       <c r="M2">
-        <v>0.111</v>
-      </c>
-      <c r="Z2">
-        <v>-0.183</v>
-      </c>
-      <c r="AA2">
-        <v>0.91</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>1.449</v>
+        <v>1.515</v>
       </c>
       <c r="C3">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.196</v>
+        <v>-0.269</v>
       </c>
       <c r="E3">
-        <v>0.36</v>
+        <v>0.164</v>
       </c>
       <c r="F3">
-        <v>-0.066</v>
+        <v>-0.236</v>
       </c>
       <c r="G3">
-        <v>0.729</v>
+        <v>0.369</v>
       </c>
       <c r="H3">
-        <v>0.08400000000000001</v>
+        <v>-0.332</v>
       </c>
       <c r="I3">
-        <v>0.669</v>
+        <v>0.222</v>
       </c>
       <c r="J3">
-        <v>-0.36</v>
+        <v>-0.062</v>
       </c>
       <c r="K3">
-        <v>0.158</v>
+        <v>0.825</v>
       </c>
       <c r="L3">
-        <v>0.206</v>
+        <v>0.163</v>
       </c>
       <c r="M3">
-        <v>0.409</v>
+        <v>0.547</v>
       </c>
       <c r="Z3">
-        <v>0.27</v>
+        <v>0.508</v>
       </c>
       <c r="AA3">
-        <v>0.798</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>0.842</v>
+        <v>0.645</v>
       </c>
       <c r="C4">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.214</v>
+        <v>-0.033</v>
       </c>
       <c r="E4">
-        <v>0.376</v>
+        <v>0.891</v>
       </c>
       <c r="F4">
-        <v>-0.422</v>
+        <v>-0.274</v>
       </c>
       <c r="G4">
-        <v>0.073</v>
+        <v>0.183</v>
       </c>
       <c r="H4">
-        <v>-0.331</v>
+        <v>-0.108</v>
       </c>
       <c r="I4">
-        <v>0.095</v>
+        <v>0.583</v>
       </c>
       <c r="J4">
-        <v>-0.184</v>
+        <v>-0.406</v>
       </c>
       <c r="K4">
-        <v>0.338</v>
+        <v>0.035</v>
       </c>
       <c r="L4">
-        <v>-0.016</v>
+        <v>0.097</v>
       </c>
       <c r="M4">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="N4">
-        <v>-0.437</v>
-      </c>
-      <c r="O4">
-        <v>0.002</v>
-      </c>
-      <c r="P4">
-        <v>-0.199</v>
-      </c>
-      <c r="Q4">
-        <v>0.08</v>
-      </c>
-      <c r="R4">
-        <v>-0.218</v>
-      </c>
-      <c r="S4">
-        <v>0.049</v>
-      </c>
-      <c r="T4">
-        <v>-0.184</v>
-      </c>
-      <c r="U4">
-        <v>0.078</v>
-      </c>
-      <c r="V4">
-        <v>-0.29</v>
-      </c>
-      <c r="W4">
-        <v>0.014</v>
-      </c>
-      <c r="X4">
-        <v>0.024</v>
-      </c>
-      <c r="Y4">
-        <v>0.772</v>
+        <v>0.667</v>
+      </c>
+      <c r="Z4">
+        <v>-0.099</v>
+      </c>
+      <c r="AA4">
+        <v>0.928</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0.871</v>
@@ -1508,49 +1843,344 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
+        <v>0.842</v>
+      </c>
+      <c r="C6">
+        <v>0.011</v>
+      </c>
+      <c r="D6">
+        <v>-0.214</v>
+      </c>
+      <c r="E6">
+        <v>0.376</v>
+      </c>
+      <c r="F6">
+        <v>-0.422</v>
+      </c>
+      <c r="G6">
+        <v>0.073</v>
+      </c>
+      <c r="H6">
+        <v>-0.331</v>
+      </c>
+      <c r="I6">
+        <v>0.095</v>
+      </c>
+      <c r="J6">
+        <v>-0.184</v>
+      </c>
+      <c r="K6">
+        <v>0.338</v>
+      </c>
+      <c r="L6">
+        <v>-0.016</v>
+      </c>
+      <c r="M6">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="N6">
+        <v>-0.437</v>
+      </c>
+      <c r="O6">
+        <v>0.002</v>
+      </c>
+      <c r="P6">
+        <v>-0.199</v>
+      </c>
+      <c r="Q6">
+        <v>0.08</v>
+      </c>
+      <c r="R6">
+        <v>-0.218</v>
+      </c>
+      <c r="S6">
+        <v>0.049</v>
+      </c>
+      <c r="T6">
+        <v>-0.184</v>
+      </c>
+      <c r="U6">
+        <v>0.078</v>
+      </c>
+      <c r="V6">
+        <v>-0.29</v>
+      </c>
+      <c r="W6">
+        <v>0.014</v>
+      </c>
+      <c r="X6">
+        <v>0.024</v>
+      </c>
+      <c r="Y6">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>2.996</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-0.001</v>
+      </c>
+      <c r="E7">
+        <v>0.996</v>
+      </c>
+      <c r="F7">
+        <v>-0.209</v>
+      </c>
+      <c r="G7">
+        <v>0.434</v>
+      </c>
+      <c r="H7">
+        <v>0.037</v>
+      </c>
+      <c r="I7">
+        <v>0.872</v>
+      </c>
+      <c r="J7">
+        <v>-0.106</v>
+      </c>
+      <c r="K7">
+        <v>0.654</v>
+      </c>
+      <c r="L7">
+        <v>0.293</v>
+      </c>
+      <c r="M7">
+        <v>0.311</v>
+      </c>
+      <c r="Z7">
+        <v>0.213</v>
+      </c>
+      <c r="AA7">
+        <v>0.829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
         <v>1.492</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.001</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>0.997</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>0.11</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>0.5570000000000001</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>-0.228</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>0.106</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>-0.237</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>0.257</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>-0.13</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>0.363</v>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <v>0.287</v>
       </c>
-      <c r="AA6">
+      <c r="AA8">
         <v>0.699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.674</v>
+      </c>
+      <c r="C9">
+        <v>0.001</v>
+      </c>
+      <c r="D9">
+        <v>0.048</v>
+      </c>
+      <c r="E9">
+        <v>0.858</v>
+      </c>
+      <c r="F9">
+        <v>-0.354</v>
+      </c>
+      <c r="G9">
+        <v>0.238</v>
+      </c>
+      <c r="H9">
+        <v>0.113</v>
+      </c>
+      <c r="I9">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="J9">
+        <v>-0.36</v>
+      </c>
+      <c r="K9">
+        <v>0.308</v>
+      </c>
+      <c r="L9">
+        <v>-0.433</v>
+      </c>
+      <c r="M9">
+        <v>0.111</v>
+      </c>
+      <c r="Z9">
+        <v>-0.183</v>
+      </c>
+      <c r="AA9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0.532</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-0.204</v>
+      </c>
+      <c r="E10">
+        <v>0.204</v>
+      </c>
+      <c r="F10">
+        <v>-0.341</v>
+      </c>
+      <c r="G10">
+        <v>0.018</v>
+      </c>
+      <c r="H10">
+        <v>-0.206</v>
+      </c>
+      <c r="I10">
+        <v>0.12</v>
+      </c>
+      <c r="J10">
+        <v>-0.195</v>
+      </c>
+      <c r="K10">
+        <v>0.292</v>
+      </c>
+      <c r="L10">
+        <v>-0.146</v>
+      </c>
+      <c r="M10">
+        <v>0.411</v>
+      </c>
+      <c r="N10">
+        <v>-0.197</v>
+      </c>
+      <c r="O10">
+        <v>0.44</v>
+      </c>
+      <c r="P10">
+        <v>-0.075</v>
+      </c>
+      <c r="Q10">
+        <v>0.376</v>
+      </c>
+      <c r="R10">
+        <v>-0.283</v>
+      </c>
+      <c r="S10">
+        <v>0.036</v>
+      </c>
+      <c r="T10">
+        <v>-0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>-0.204</v>
+      </c>
+      <c r="W10">
+        <v>0.176</v>
+      </c>
+      <c r="X10">
+        <v>0.059</v>
+      </c>
+      <c r="Y10">
+        <v>0.669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1.449</v>
+      </c>
+      <c r="C11">
+        <v>0.003</v>
+      </c>
+      <c r="D11">
+        <v>0.196</v>
+      </c>
+      <c r="E11">
+        <v>0.36</v>
+      </c>
+      <c r="F11">
+        <v>-0.066</v>
+      </c>
+      <c r="G11">
+        <v>0.729</v>
+      </c>
+      <c r="H11">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.669</v>
+      </c>
+      <c r="J11">
+        <v>-0.36</v>
+      </c>
+      <c r="K11">
+        <v>0.158</v>
+      </c>
+      <c r="L11">
+        <v>0.206</v>
+      </c>
+      <c r="M11">
+        <v>0.409</v>
+      </c>
+      <c r="Z11">
+        <v>0.27</v>
+      </c>
+      <c r="AA11">
+        <v>0.798</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +2190,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1571,168 +2201,168 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
       <c r="C2">
-        <v>0.005</v>
+        <v>0.078</v>
       </c>
       <c r="D2">
-        <v>0.204</v>
+        <v>0.214</v>
       </c>
       <c r="E2">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F2">
-        <v>0.283</v>
+        <v>0.116</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>0.294</v>
       </c>
       <c r="H2">
-        <v>-0.06900000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="I2">
-        <v>0.001</v>
+        <v>0.546</v>
       </c>
       <c r="J2">
-        <v>-0.108</v>
+        <v>-0.08</v>
       </c>
       <c r="K2">
-        <v>0.103</v>
+        <v>0.187</v>
       </c>
       <c r="L2">
-        <v>-0.108</v>
+        <v>-0.08</v>
       </c>
       <c r="M2">
-        <v>0.103</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>0.233</v>
+        <v>0.104</v>
       </c>
       <c r="C3">
-        <v>0.016</v>
+        <v>0.045</v>
       </c>
       <c r="D3">
-        <v>0.345</v>
+        <v>0.14</v>
       </c>
       <c r="E3">
-        <v>0.08799999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="F3">
-        <v>0.401</v>
+        <v>0.003</v>
       </c>
       <c r="G3">
-        <v>0.08599999999999999</v>
+        <v>0.589</v>
       </c>
       <c r="H3">
-        <v>-0.395</v>
+        <v>-0.036</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.283</v>
       </c>
       <c r="J3">
-        <v>-0.606</v>
+        <v>-0.039</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.885</v>
       </c>
       <c r="L3">
-        <v>-0.606</v>
+        <v>-0.039</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>0.192</v>
+        <v>0.133</v>
       </c>
       <c r="C4">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="D4">
-        <v>0.244</v>
+        <v>0.26</v>
       </c>
       <c r="E4">
-        <v>0.213</v>
+        <v>0.038</v>
       </c>
       <c r="F4">
-        <v>0.259</v>
+        <v>0.242</v>
       </c>
       <c r="G4">
-        <v>0.099</v>
+        <v>0.023</v>
       </c>
       <c r="H4">
-        <v>-0.4</v>
+        <v>-0.105</v>
       </c>
       <c r="I4">
-        <v>0.003</v>
+        <v>0.055</v>
       </c>
       <c r="J4">
-        <v>-0.296</v>
+        <v>-0.11</v>
       </c>
       <c r="K4">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="L4">
-        <v>-0.296</v>
+        <v>-0.11</v>
       </c>
       <c r="M4">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0.136</v>
@@ -1773,42 +2403,247 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>0.131</v>
+        <v>0.192</v>
       </c>
       <c r="C6">
-        <v>0.111</v>
+        <v>0.012</v>
       </c>
       <c r="D6">
-        <v>0.162</v>
+        <v>0.244</v>
       </c>
       <c r="E6">
-        <v>0.08</v>
+        <v>0.213</v>
       </c>
       <c r="F6">
-        <v>0.226</v>
+        <v>0.259</v>
       </c>
       <c r="G6">
-        <v>0.081</v>
+        <v>0.099</v>
       </c>
       <c r="H6">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="I6">
         <v>0.003</v>
       </c>
       <c r="J6">
+        <v>-0.296</v>
+      </c>
+      <c r="K6">
+        <v>0.044</v>
+      </c>
+      <c r="L6">
+        <v>-0.296</v>
+      </c>
+      <c r="M6">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0.141</v>
+      </c>
+      <c r="C7">
+        <v>0.014</v>
+      </c>
+      <c r="D7">
+        <v>0.187</v>
+      </c>
+      <c r="E7">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.443</v>
+      </c>
+      <c r="G7">
+        <v>0.021</v>
+      </c>
+      <c r="H7">
+        <v>-0.061</v>
+      </c>
+      <c r="I7">
+        <v>0.004</v>
+      </c>
+      <c r="J7">
+        <v>-0.202</v>
+      </c>
+      <c r="K7">
+        <v>0.019</v>
+      </c>
+      <c r="L7">
+        <v>-0.202</v>
+      </c>
+      <c r="M7">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>0.131</v>
+      </c>
+      <c r="C8">
+        <v>0.111</v>
+      </c>
+      <c r="D8">
+        <v>0.162</v>
+      </c>
+      <c r="E8">
+        <v>0.08</v>
+      </c>
+      <c r="F8">
+        <v>0.226</v>
+      </c>
+      <c r="G8">
+        <v>0.081</v>
+      </c>
+      <c r="H8">
+        <v>-0.496</v>
+      </c>
+      <c r="I8">
+        <v>0.003</v>
+      </c>
+      <c r="J8">
         <v>-0.701</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>-0.701</v>
       </c>
-      <c r="M6">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.165</v>
+      </c>
+      <c r="C9">
+        <v>0.005</v>
+      </c>
+      <c r="D9">
+        <v>0.204</v>
+      </c>
+      <c r="E9">
+        <v>0.005</v>
+      </c>
+      <c r="F9">
+        <v>0.283</v>
+      </c>
+      <c r="G9">
+        <v>0.02</v>
+      </c>
+      <c r="H9">
+        <v>-0.06900000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.001</v>
+      </c>
+      <c r="J9">
+        <v>-0.108</v>
+      </c>
+      <c r="K9">
+        <v>0.103</v>
+      </c>
+      <c r="L9">
+        <v>-0.108</v>
+      </c>
+      <c r="M9">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0.121</v>
+      </c>
+      <c r="C10">
+        <v>0.043</v>
+      </c>
+      <c r="D10">
+        <v>0.165</v>
+      </c>
+      <c r="E10">
+        <v>0.018</v>
+      </c>
+      <c r="F10">
+        <v>0.411</v>
+      </c>
+      <c r="G10">
+        <v>0.003</v>
+      </c>
+      <c r="H10">
+        <v>-0.317</v>
+      </c>
+      <c r="I10">
+        <v>0.01</v>
+      </c>
+      <c r="J10">
+        <v>-0.493</v>
+      </c>
+      <c r="K10">
+        <v>0.005</v>
+      </c>
+      <c r="L10">
+        <v>-0.493</v>
+      </c>
+      <c r="M10">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0.233</v>
+      </c>
+      <c r="C11">
+        <v>0.016</v>
+      </c>
+      <c r="D11">
+        <v>0.345</v>
+      </c>
+      <c r="E11">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.401</v>
+      </c>
+      <c r="G11">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="H11">
+        <v>-0.395</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>-0.606</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>-0.606</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
     </row>

--- a/combined_analysis/intersectional-genes/Rho_up & Exp_up & Hyper_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_up & Exp_up & Hyper_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>chr</t>
   </si>
@@ -81,9 +81,6 @@
     <t>chr11</t>
   </si>
   <si>
-    <t>chr16</t>
-  </si>
-  <si>
     <t>chr6</t>
   </si>
   <si>
@@ -108,18 +105,12 @@
     <t>MRPL17</t>
   </si>
   <si>
-    <t>DDX19A</t>
-  </si>
-  <si>
     <t>POLR1C</t>
   </si>
   <si>
     <t>GEMIN4</t>
   </si>
   <si>
-    <t>UHRF1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -150,18 +141,12 @@
     <t>ENSG00000158042.9</t>
   </si>
   <si>
-    <t>ENSG00000168872.17</t>
-  </si>
-  <si>
     <t>ENSG00000171453.20</t>
   </si>
   <si>
     <t>ENSG00000179409.11</t>
   </si>
   <si>
-    <t>ENSG00000276043.5</t>
-  </si>
-  <si>
     <t>Exp.hl60.log2FC</t>
   </si>
   <si>
@@ -196,42 +181,6 @@
   </si>
   <si>
     <t>Exp.thp1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.pval</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.pval</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.pval</t>
   </si>
   <si>
     <t>TE.Estimate_treatmentDRUG</t>
@@ -631,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,13 +644,13 @@
         <v>37983553</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>37983504</v>
@@ -716,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M2">
         <v>5.402677381872281</v>
@@ -728,7 +677,7 @@
         <v>0.0007189404614443839</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -742,13 +691,13 @@
         <v>38011567</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>38011518</v>
@@ -763,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3">
         <v>0.753832132381527</v>
@@ -775,7 +724,7 @@
         <v>0.00151263453385619</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -789,13 +738,13 @@
         <v>38012958</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>38012909</v>
@@ -810,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>-1.49392502530864</v>
@@ -822,7 +771,7 @@
         <v>2.84819308030704E-05</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -836,13 +785,13 @@
         <v>38013356</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>38013307</v>
@@ -857,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M5">
         <v>-0.833504538254867</v>
@@ -869,7 +818,7 @@
         <v>0.00303552350787406</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -883,13 +832,13 @@
         <v>80046504</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>80046455</v>
@@ -904,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M6">
         <v>1.39351460909385</v>
@@ -916,7 +865,7 @@
         <v>0.00389571291192137</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -930,13 +879,13 @@
         <v>184334811</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>184334762</v>
@@ -951,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>6.2461067654722</v>
@@ -963,7 +912,7 @@
         <v>1.063111376709E-09</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -977,13 +926,13 @@
         <v>184335159</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>184335110</v>
@@ -998,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M8">
         <v>4.93447393312132</v>
@@ -1010,7 +959,7 @@
         <v>7.437631607265509E-07</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1024,13 +973,13 @@
         <v>1854524</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1854475</v>
@@ -1045,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M9">
         <v>-1.84054963339749</v>
@@ -1057,7 +1006,7 @@
         <v>0.000273844330500483</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1071,13 +1020,13 @@
         <v>1854623</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1854574</v>
@@ -1092,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M10">
         <v>2.96398357523936</v>
@@ -1104,7 +1053,7 @@
         <v>0.00435014396607925</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1118,13 +1067,13 @@
         <v>27130854</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>27130805</v>
@@ -1139,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M11">
         <v>5.06890420221087</v>
@@ -1151,7 +1100,7 @@
         <v>8.559171092992209E-07</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1165,13 +1114,13 @@
         <v>6682257</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>6682208</v>
@@ -1186,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M12">
         <v>1.84516024595485</v>
@@ -1198,7 +1147,7 @@
         <v>0.000322116124125027</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1206,25 +1155,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>70372184</v>
+        <v>43521396</v>
       </c>
       <c r="C13">
-        <v>70372233</v>
+        <v>43521445</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>70372184</v>
+        <v>43521396</v>
       </c>
       <c r="H13">
-        <v>70372233</v>
+        <v>43521445</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1233,30 +1182,30 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>1.3028278300968</v>
+        <v>1.2252635271348</v>
       </c>
       <c r="N13">
-        <v>0.0009859978971932251</v>
+        <v>0.00093051473993977</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>70372484</v>
+        <v>746920</v>
       </c>
       <c r="C14">
-        <v>70372533</v>
+        <v>746969</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1265,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>70372484</v>
+        <v>746920</v>
       </c>
       <c r="H14">
-        <v>70372533</v>
+        <v>746969</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1280,19 +1229,19 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>1.6259672143853</v>
+        <v>1.28903105569467</v>
       </c>
       <c r="N14">
-        <v>4.22369666268629E-05</v>
+        <v>0.00180369781883138</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1300,25 +1249,25 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>43521396</v>
+        <v>747569</v>
       </c>
       <c r="C15">
-        <v>43521445</v>
+        <v>747618</v>
       </c>
       <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
       <c r="G15">
-        <v>43521396</v>
+        <v>747569</v>
       </c>
       <c r="H15">
-        <v>43521445</v>
+        <v>747618</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1327,207 +1276,19 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>1.2252635271348</v>
+        <v>4.3040650931948</v>
       </c>
       <c r="N15">
-        <v>0.00093051473993977</v>
+        <v>1.16290903628968E-06</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>746920</v>
-      </c>
-      <c r="C16">
-        <v>746969</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16">
-        <v>746920</v>
-      </c>
-      <c r="H16">
-        <v>746969</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16">
-        <v>1.28903105569467</v>
-      </c>
-      <c r="N16">
-        <v>0.00180369781883138</v>
-      </c>
-      <c r="O16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>747569</v>
-      </c>
-      <c r="C17">
-        <v>747618</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17">
-        <v>747569</v>
-      </c>
-      <c r="H17">
-        <v>747618</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17">
-        <v>4.3040650931948</v>
-      </c>
-      <c r="N17">
-        <v>1.16290903628968E-06</v>
-      </c>
-      <c r="O17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>4961506</v>
-      </c>
-      <c r="C18">
-        <v>4961555</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18">
-        <v>4961506</v>
-      </c>
-      <c r="H18">
-        <v>4961555</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18">
-        <v>1.03027752842571</v>
-      </c>
-      <c r="N18">
-        <v>0.000369457620172153</v>
-      </c>
-      <c r="O18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>4961755</v>
-      </c>
-      <c r="C19">
-        <v>4961804</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19">
-        <v>4961755</v>
-      </c>
-      <c r="H19">
-        <v>4961804</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19">
-        <v>1.73753791506142</v>
-      </c>
-      <c r="N19">
-        <v>0.00073579121568701</v>
-      </c>
-      <c r="O19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1537,139 +1298,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>0.228</v>
+        <v>0.424</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.07099999999999999</v>
+        <v>-0.033</v>
       </c>
       <c r="E2">
-        <v>0.6830000000000001</v>
+        <v>0.891</v>
       </c>
       <c r="F2">
-        <v>-0.204</v>
+        <v>-0.274</v>
       </c>
       <c r="G2">
-        <v>0.324</v>
+        <v>0.183</v>
       </c>
       <c r="H2">
-        <v>-0.029</v>
+        <v>-0.108</v>
       </c>
       <c r="I2">
-        <v>0.885</v>
+        <v>0.583</v>
       </c>
       <c r="J2">
-        <v>-0.031</v>
+        <v>-0.406</v>
       </c>
       <c r="K2">
-        <v>0.891</v>
+        <v>0.035</v>
       </c>
       <c r="L2">
-        <v>0.079</v>
+        <v>0.097</v>
       </c>
       <c r="M2">
-        <v>0.633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>0.667</v>
+      </c>
+      <c r="N2">
+        <v>-0.099</v>
+      </c>
+      <c r="O2">
+        <v>0.928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>1.515</v>
+        <v>0.893</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1704,482 +1435,286 @@
       <c r="M3">
         <v>0.547</v>
       </c>
-      <c r="Z3">
+      <c r="N3">
         <v>0.508</v>
       </c>
-      <c r="AA3">
+      <c r="O3">
         <v>0.546</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4">
-        <v>0.645</v>
+        <v>1.713</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.033</v>
+        <v>-0.001</v>
       </c>
       <c r="E4">
-        <v>0.891</v>
+        <v>0.996</v>
       </c>
       <c r="F4">
-        <v>-0.274</v>
+        <v>-0.209</v>
       </c>
       <c r="G4">
-        <v>0.183</v>
+        <v>0.434</v>
       </c>
       <c r="H4">
-        <v>-0.108</v>
+        <v>0.037</v>
       </c>
       <c r="I4">
-        <v>0.583</v>
+        <v>0.872</v>
       </c>
       <c r="J4">
-        <v>-0.406</v>
+        <v>-0.106</v>
       </c>
       <c r="K4">
-        <v>0.035</v>
+        <v>0.654</v>
       </c>
       <c r="L4">
-        <v>0.097</v>
+        <v>0.293</v>
       </c>
       <c r="M4">
-        <v>0.667</v>
-      </c>
-      <c r="Z4">
-        <v>-0.099</v>
-      </c>
-      <c r="AA4">
-        <v>0.928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>0.311</v>
+      </c>
+      <c r="N4">
+        <v>0.213</v>
+      </c>
+      <c r="O4">
+        <v>0.829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0.871</v>
+        <v>0.962</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D5">
+        <v>0.048</v>
+      </c>
+      <c r="E5">
+        <v>0.858</v>
+      </c>
+      <c r="F5">
+        <v>-0.354</v>
+      </c>
+      <c r="G5">
+        <v>0.238</v>
+      </c>
+      <c r="H5">
+        <v>0.113</v>
+      </c>
+      <c r="I5">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="J5">
+        <v>-0.36</v>
+      </c>
+      <c r="K5">
+        <v>0.308</v>
+      </c>
+      <c r="L5">
+        <v>-0.433</v>
+      </c>
+      <c r="M5">
+        <v>0.111</v>
+      </c>
+      <c r="N5">
+        <v>-0.183</v>
+      </c>
+      <c r="O5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>1.469</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.001</v>
+      </c>
+      <c r="E6">
+        <v>0.997</v>
+      </c>
+      <c r="F6">
+        <v>0.11</v>
+      </c>
+      <c r="G6">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="H6">
+        <v>-0.228</v>
+      </c>
+      <c r="I6">
+        <v>0.106</v>
+      </c>
+      <c r="J6">
+        <v>-0.237</v>
+      </c>
+      <c r="K6">
+        <v>0.257</v>
+      </c>
+      <c r="L6">
+        <v>-0.13</v>
+      </c>
+      <c r="M6">
+        <v>0.363</v>
+      </c>
+      <c r="N6">
+        <v>0.287</v>
+      </c>
+      <c r="O6">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0.537</v>
+      </c>
+      <c r="C7">
+        <v>0.011</v>
+      </c>
+      <c r="D7">
+        <v>-0.214</v>
+      </c>
+      <c r="E7">
+        <v>0.376</v>
+      </c>
+      <c r="F7">
+        <v>-0.422</v>
+      </c>
+      <c r="G7">
+        <v>0.073</v>
+      </c>
+      <c r="H7">
+        <v>-0.331</v>
+      </c>
+      <c r="I7">
+        <v>0.095</v>
+      </c>
+      <c r="J7">
+        <v>-0.184</v>
+      </c>
+      <c r="K7">
+        <v>0.338</v>
+      </c>
+      <c r="L7">
+        <v>-0.016</v>
+      </c>
+      <c r="M7">
+        <v>0.9330000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0.23</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>-0.177</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>0.264</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>0.031</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>0.826</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>-0.028</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>0.801</v>
       </c>
-      <c r="J5">
+      <c r="J8">
         <v>-0.176</v>
       </c>
-      <c r="K5">
+      <c r="K8">
         <v>0.261</v>
       </c>
-      <c r="L5">
+      <c r="L8">
         <v>0.111</v>
       </c>
-      <c r="M5">
+      <c r="M8">
         <v>0.458</v>
       </c>
-      <c r="N5">
-        <v>-0.415</v>
-      </c>
-      <c r="O5">
-        <v>0.005</v>
-      </c>
-      <c r="P5">
-        <v>0.014</v>
-      </c>
-      <c r="Q5">
-        <v>0.877</v>
-      </c>
-      <c r="R5">
-        <v>-0.103</v>
-      </c>
-      <c r="S5">
-        <v>0.325</v>
-      </c>
-      <c r="T5">
-        <v>-0.099</v>
-      </c>
-      <c r="U5">
-        <v>0.269</v>
-      </c>
-      <c r="V5">
-        <v>-0.153</v>
-      </c>
-      <c r="W5">
-        <v>0.162</v>
-      </c>
-      <c r="X5">
-        <v>0.016</v>
-      </c>
-      <c r="Y5">
-        <v>0.849</v>
-      </c>
-      <c r="Z5">
+      <c r="N8">
         <v>0.276</v>
       </c>
-      <c r="AA5">
+      <c r="O8">
         <v>0.031</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0.842</v>
-      </c>
-      <c r="C6">
-        <v>0.011</v>
-      </c>
-      <c r="D6">
-        <v>-0.214</v>
-      </c>
-      <c r="E6">
-        <v>0.376</v>
-      </c>
-      <c r="F6">
-        <v>-0.422</v>
-      </c>
-      <c r="G6">
-        <v>0.073</v>
-      </c>
-      <c r="H6">
-        <v>-0.331</v>
-      </c>
-      <c r="I6">
-        <v>0.095</v>
-      </c>
-      <c r="J6">
-        <v>-0.184</v>
-      </c>
-      <c r="K6">
-        <v>0.338</v>
-      </c>
-      <c r="L6">
-        <v>-0.016</v>
-      </c>
-      <c r="M6">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="N6">
-        <v>-0.437</v>
-      </c>
-      <c r="O6">
-        <v>0.002</v>
-      </c>
-      <c r="P6">
-        <v>-0.199</v>
-      </c>
-      <c r="Q6">
-        <v>0.08</v>
-      </c>
-      <c r="R6">
-        <v>-0.218</v>
-      </c>
-      <c r="S6">
-        <v>0.049</v>
-      </c>
-      <c r="T6">
-        <v>-0.184</v>
-      </c>
-      <c r="U6">
-        <v>0.078</v>
-      </c>
-      <c r="V6">
-        <v>-0.29</v>
-      </c>
-      <c r="W6">
-        <v>0.014</v>
-      </c>
-      <c r="X6">
-        <v>0.024</v>
-      </c>
-      <c r="Y6">
-        <v>0.772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>2.996</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>-0.001</v>
-      </c>
-      <c r="E7">
-        <v>0.996</v>
-      </c>
-      <c r="F7">
-        <v>-0.209</v>
-      </c>
-      <c r="G7">
-        <v>0.434</v>
-      </c>
-      <c r="H7">
-        <v>0.037</v>
-      </c>
-      <c r="I7">
-        <v>0.872</v>
-      </c>
-      <c r="J7">
-        <v>-0.106</v>
-      </c>
-      <c r="K7">
-        <v>0.654</v>
-      </c>
-      <c r="L7">
-        <v>0.293</v>
-      </c>
-      <c r="M7">
-        <v>0.311</v>
-      </c>
-      <c r="Z7">
-        <v>0.213</v>
-      </c>
-      <c r="AA7">
-        <v>0.829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>1.492</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.001</v>
-      </c>
-      <c r="E8">
-        <v>0.997</v>
-      </c>
-      <c r="F8">
-        <v>0.11</v>
-      </c>
-      <c r="G8">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="H8">
-        <v>-0.228</v>
-      </c>
-      <c r="I8">
-        <v>0.106</v>
-      </c>
-      <c r="J8">
-        <v>-0.237</v>
-      </c>
-      <c r="K8">
-        <v>0.257</v>
-      </c>
-      <c r="L8">
-        <v>-0.13</v>
-      </c>
-      <c r="M8">
-        <v>0.363</v>
-      </c>
-      <c r="Z8">
-        <v>0.287</v>
-      </c>
-      <c r="AA8">
-        <v>0.699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>0.674</v>
+        <v>1.944</v>
       </c>
       <c r="C9">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="D9">
-        <v>0.048</v>
+        <v>0.196</v>
       </c>
       <c r="E9">
-        <v>0.858</v>
+        <v>0.36</v>
       </c>
       <c r="F9">
-        <v>-0.354</v>
+        <v>-0.066</v>
       </c>
       <c r="G9">
-        <v>0.238</v>
+        <v>0.729</v>
       </c>
       <c r="H9">
-        <v>0.113</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I9">
-        <v>0.5570000000000001</v>
+        <v>0.669</v>
       </c>
       <c r="J9">
         <v>-0.36</v>
       </c>
       <c r="K9">
-        <v>0.308</v>
+        <v>0.158</v>
       </c>
       <c r="L9">
-        <v>-0.433</v>
+        <v>0.206</v>
       </c>
       <c r="M9">
-        <v>0.111</v>
-      </c>
-      <c r="Z9">
-        <v>-0.183</v>
-      </c>
-      <c r="AA9">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>0.532</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-0.204</v>
-      </c>
-      <c r="E10">
-        <v>0.204</v>
-      </c>
-      <c r="F10">
-        <v>-0.341</v>
-      </c>
-      <c r="G10">
-        <v>0.018</v>
-      </c>
-      <c r="H10">
-        <v>-0.206</v>
-      </c>
-      <c r="I10">
-        <v>0.12</v>
-      </c>
-      <c r="J10">
-        <v>-0.195</v>
-      </c>
-      <c r="K10">
-        <v>0.292</v>
-      </c>
-      <c r="L10">
-        <v>-0.146</v>
-      </c>
-      <c r="M10">
-        <v>0.411</v>
-      </c>
-      <c r="N10">
-        <v>-0.197</v>
-      </c>
-      <c r="O10">
-        <v>0.44</v>
-      </c>
-      <c r="P10">
-        <v>-0.075</v>
-      </c>
-      <c r="Q10">
-        <v>0.376</v>
-      </c>
-      <c r="R10">
-        <v>-0.283</v>
-      </c>
-      <c r="S10">
-        <v>0.036</v>
-      </c>
-      <c r="T10">
-        <v>-0</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>-0.204</v>
-      </c>
-      <c r="W10">
-        <v>0.176</v>
-      </c>
-      <c r="X10">
-        <v>0.059</v>
-      </c>
-      <c r="Y10">
-        <v>0.669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>1.449</v>
-      </c>
-      <c r="C11">
-        <v>0.003</v>
-      </c>
-      <c r="D11">
-        <v>0.196</v>
-      </c>
-      <c r="E11">
-        <v>0.36</v>
-      </c>
-      <c r="F11">
-        <v>-0.066</v>
-      </c>
-      <c r="G11">
-        <v>0.729</v>
-      </c>
-      <c r="H11">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.669</v>
-      </c>
-      <c r="J11">
-        <v>-0.36</v>
-      </c>
-      <c r="K11">
-        <v>0.158</v>
-      </c>
-      <c r="L11">
-        <v>0.206</v>
-      </c>
-      <c r="M11">
         <v>0.409</v>
       </c>
-      <c r="Z11">
+      <c r="N9">
         <v>0.27</v>
       </c>
-      <c r="AA11">
+      <c r="O9">
         <v>0.798</v>
       </c>
     </row>
@@ -2190,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2201,86 +1736,86 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>0.16</v>
+        <v>0.133</v>
       </c>
       <c r="C2">
-        <v>0.078</v>
+        <v>0.005</v>
       </c>
       <c r="D2">
-        <v>0.214</v>
+        <v>0.26</v>
       </c>
       <c r="E2">
-        <v>0.003</v>
+        <v>0.038</v>
       </c>
       <c r="F2">
-        <v>0.116</v>
+        <v>0.242</v>
       </c>
       <c r="G2">
-        <v>0.294</v>
+        <v>0.023</v>
       </c>
       <c r="H2">
-        <v>0.011</v>
+        <v>-0.105</v>
       </c>
       <c r="I2">
-        <v>0.546</v>
+        <v>0.055</v>
       </c>
       <c r="J2">
-        <v>-0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="K2">
-        <v>0.187</v>
+        <v>0.039</v>
       </c>
       <c r="L2">
-        <v>-0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="M2">
-        <v>0.187</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0.104</v>
@@ -2324,40 +1859,40 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>0.133</v>
+        <v>0.141</v>
       </c>
       <c r="C4">
-        <v>0.005</v>
+        <v>0.014</v>
       </c>
       <c r="D4">
-        <v>0.26</v>
+        <v>0.187</v>
       </c>
       <c r="E4">
-        <v>0.038</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F4">
-        <v>0.242</v>
+        <v>0.443</v>
       </c>
       <c r="G4">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="H4">
-        <v>-0.105</v>
+        <v>-0.061</v>
       </c>
       <c r="I4">
-        <v>0.055</v>
+        <v>0.004</v>
       </c>
       <c r="J4">
-        <v>-0.11</v>
+        <v>-0.202</v>
       </c>
       <c r="K4">
-        <v>0.039</v>
+        <v>0.019</v>
       </c>
       <c r="L4">
-        <v>-0.11</v>
+        <v>-0.202</v>
       </c>
       <c r="M4">
-        <v>0.039</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2365,285 +1900,203 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0.136</v>
+        <v>0.165</v>
       </c>
       <c r="C5">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="D5">
-        <v>0.239</v>
+        <v>0.204</v>
       </c>
       <c r="E5">
-        <v>0.018</v>
+        <v>0.005</v>
       </c>
       <c r="F5">
-        <v>0.431</v>
+        <v>0.283</v>
       </c>
       <c r="G5">
-        <v>0.028</v>
+        <v>0.02</v>
       </c>
       <c r="H5">
-        <v>-0.117</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="I5">
-        <v>0.014</v>
+        <v>0.001</v>
       </c>
       <c r="J5">
-        <v>-0.151</v>
+        <v>-0.108</v>
       </c>
       <c r="K5">
-        <v>0.033</v>
+        <v>0.103</v>
       </c>
       <c r="L5">
-        <v>-0.151</v>
+        <v>-0.108</v>
       </c>
       <c r="M5">
-        <v>0.033</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>0.192</v>
+        <v>0.131</v>
       </c>
       <c r="C6">
-        <v>0.012</v>
+        <v>0.111</v>
       </c>
       <c r="D6">
-        <v>0.244</v>
+        <v>0.162</v>
       </c>
       <c r="E6">
-        <v>0.213</v>
+        <v>0.08</v>
       </c>
       <c r="F6">
-        <v>0.259</v>
+        <v>0.226</v>
       </c>
       <c r="G6">
-        <v>0.099</v>
+        <v>0.081</v>
       </c>
       <c r="H6">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="I6">
         <v>0.003</v>
       </c>
       <c r="J6">
-        <v>-0.296</v>
+        <v>-0.701</v>
       </c>
       <c r="K6">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.296</v>
+        <v>-0.701</v>
       </c>
       <c r="M6">
-        <v>0.044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>0.141</v>
+        <v>0.192</v>
       </c>
       <c r="C7">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="D7">
-        <v>0.187</v>
+        <v>0.244</v>
       </c>
       <c r="E7">
-        <v>0.08500000000000001</v>
+        <v>0.213</v>
       </c>
       <c r="F7">
-        <v>0.443</v>
+        <v>0.259</v>
       </c>
       <c r="G7">
-        <v>0.021</v>
+        <v>0.099</v>
       </c>
       <c r="H7">
-        <v>-0.061</v>
+        <v>-0.4</v>
       </c>
       <c r="I7">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="J7">
-        <v>-0.202</v>
+        <v>-0.296</v>
       </c>
       <c r="K7">
-        <v>0.019</v>
+        <v>0.044</v>
       </c>
       <c r="L7">
-        <v>-0.202</v>
+        <v>-0.296</v>
       </c>
       <c r="M7">
-        <v>0.019</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>0.131</v>
+        <v>0.136</v>
       </c>
       <c r="C8">
-        <v>0.111</v>
+        <v>0.016</v>
       </c>
       <c r="D8">
-        <v>0.162</v>
+        <v>0.239</v>
       </c>
       <c r="E8">
-        <v>0.08</v>
+        <v>0.018</v>
       </c>
       <c r="F8">
-        <v>0.226</v>
+        <v>0.431</v>
       </c>
       <c r="G8">
-        <v>0.081</v>
+        <v>0.028</v>
       </c>
       <c r="H8">
-        <v>-0.496</v>
+        <v>-0.117</v>
       </c>
       <c r="I8">
-        <v>0.003</v>
+        <v>0.014</v>
       </c>
       <c r="J8">
-        <v>-0.701</v>
+        <v>-0.151</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="L8">
-        <v>-0.701</v>
+        <v>-0.151</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>0.165</v>
+        <v>0.233</v>
       </c>
       <c r="C9">
-        <v>0.005</v>
+        <v>0.016</v>
       </c>
       <c r="D9">
-        <v>0.204</v>
+        <v>0.345</v>
       </c>
       <c r="E9">
-        <v>0.005</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F9">
-        <v>0.283</v>
+        <v>0.401</v>
       </c>
       <c r="G9">
-        <v>0.02</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H9">
-        <v>-0.06900000000000001</v>
+        <v>-0.395</v>
       </c>
       <c r="I9">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.108</v>
+        <v>-0.606</v>
       </c>
       <c r="K9">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>-0.108</v>
+        <v>-0.606</v>
       </c>
       <c r="M9">
-        <v>0.103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>0.121</v>
-      </c>
-      <c r="C10">
-        <v>0.043</v>
-      </c>
-      <c r="D10">
-        <v>0.165</v>
-      </c>
-      <c r="E10">
-        <v>0.018</v>
-      </c>
-      <c r="F10">
-        <v>0.411</v>
-      </c>
-      <c r="G10">
-        <v>0.003</v>
-      </c>
-      <c r="H10">
-        <v>-0.317</v>
-      </c>
-      <c r="I10">
-        <v>0.01</v>
-      </c>
-      <c r="J10">
-        <v>-0.493</v>
-      </c>
-      <c r="K10">
-        <v>0.005</v>
-      </c>
-      <c r="L10">
-        <v>-0.493</v>
-      </c>
-      <c r="M10">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>0.233</v>
-      </c>
-      <c r="C11">
-        <v>0.016</v>
-      </c>
-      <c r="D11">
-        <v>0.345</v>
-      </c>
-      <c r="E11">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.401</v>
-      </c>
-      <c r="G11">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="H11">
-        <v>-0.395</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>-0.606</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>-0.606</v>
-      </c>
-      <c r="M11">
         <v>0</v>
       </c>
     </row>
